--- a/portfolio_rebalancing_3_stock_universe_validation.xlsx
+++ b/portfolio_rebalancing_3_stock_universe_validation.xlsx
@@ -29,7 +29,7 @@
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -101,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
   <si>
     <t>Day</t>
   </si>
@@ -196,6 +196,15 @@
   </si>
   <si>
     <t>Holding:</t>
+  </si>
+  <si>
+    <t>Sell</t>
+  </si>
+  <si>
+    <t>Buy</t>
+  </si>
+  <si>
+    <t>Price</t>
   </si>
 </sst>
 </file>
@@ -208,7 +217,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,8 +253,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,101 +274,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -392,12 +326,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -405,79 +380,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="12" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -771,790 +730,1576 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="15" t="s">
+    <row r="1" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25"/>
+      <c r="B1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="L1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="M1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="N1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="O1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="P1" s="26" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5">
+      <c r="R1" s="1"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="15">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11">
         <v>50</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="27">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="5">
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11">
         <v>15</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="27">
-        <v>1</v>
-      </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="5">
+      <c r="H2" s="12"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11">
         <v>80</v>
       </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="27">
-        <v>1</v>
-      </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="3">
-        <f t="shared" ref="N2:N12" si="0">IFERROR(1/(L2+H2+D2),0)</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="O2" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5">
-        <v>51.789626301420391</v>
-      </c>
-      <c r="C3" s="18">
-        <f>(B3-B2)/B2</f>
-        <v>3.5792526028407823E-2</v>
-      </c>
-      <c r="D3" s="27">
-        <v>1</v>
-      </c>
-      <c r="E3" s="6">
-        <f>D2*$N2*C3</f>
-        <v>1.1930842009469273E-2</v>
-      </c>
-      <c r="F3" s="5">
-        <v>14.27177858457409</v>
-      </c>
-      <c r="G3" s="18">
-        <f>(F3-F2)/F2</f>
-        <v>-4.8548094361727342E-2</v>
-      </c>
-      <c r="H3" s="27">
-        <v>1</v>
-      </c>
-      <c r="I3" s="6">
-        <f>H2*$N2*G3</f>
-        <v>-1.6182698120575781E-2</v>
-      </c>
-      <c r="J3" s="5">
-        <v>78.024901313146302</v>
-      </c>
-      <c r="K3" s="18">
-        <f>(J3-J2)/J2</f>
-        <v>-2.4688733585671231E-2</v>
-      </c>
-      <c r="L3" s="27">
-        <v>1</v>
-      </c>
-      <c r="M3" s="6">
-        <f>L2*$N2*K3</f>
-        <v>-8.2295778618904098E-3</v>
-      </c>
-      <c r="N3" s="3">
+      <c r="L2" s="12"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="14">
+        <f t="shared" ref="O2:O23" si="0">IFERROR(1/(M2+I2+E2),0)</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="11"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="11">
+        <v>50</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0</v>
+      </c>
+      <c r="E3" s="13">
+        <v>1</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11">
+        <v>15</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0</v>
+      </c>
+      <c r="I3" s="13">
+        <v>1</v>
+      </c>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11">
+        <v>80</v>
+      </c>
+      <c r="L3" s="12">
+        <v>0</v>
+      </c>
+      <c r="M3" s="13">
+        <v>1</v>
+      </c>
+      <c r="N3" s="11"/>
+      <c r="O3" s="14">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="O3" s="7">
-        <f>O2+M3+I3+E3</f>
-        <v>0.98751856602700305</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5">
-        <v>48.360742233985683</v>
-      </c>
-      <c r="C4" s="18">
-        <f t="shared" ref="C4:C12" si="1">(B4-B3)/B3</f>
-        <v>-6.6207932211719153E-2</v>
-      </c>
-      <c r="D4" s="27">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6">
-        <f t="shared" ref="E4:E12" si="2">D3*$N3*C4</f>
-        <v>-2.2069310737239715E-2</v>
-      </c>
-      <c r="F4" s="5">
-        <v>14.109659160417303</v>
-      </c>
-      <c r="G4" s="18">
-        <f t="shared" ref="G4:G12" si="3">(F4-F3)/F3</f>
-        <v>-1.1359440815037336E-2</v>
-      </c>
-      <c r="H4" s="27">
-        <v>1</v>
-      </c>
-      <c r="I4" s="6">
-        <f t="shared" ref="I4:I12" si="4">H3*$N3*G4</f>
-        <v>-3.786480271679112E-3</v>
-      </c>
-      <c r="J4" s="5">
-        <v>80.59644608652016</v>
-      </c>
-      <c r="K4" s="18">
-        <f t="shared" ref="K4:K12" si="5">(J4-J3)/J3</f>
-        <v>3.2958000972704633E-2</v>
-      </c>
-      <c r="L4" s="27">
-        <v>1</v>
-      </c>
-      <c r="M4" s="6">
-        <f t="shared" ref="M4:M12" si="6">L3*$N3*K4</f>
-        <v>1.0986000324234878E-2</v>
-      </c>
-      <c r="N4" s="3">
+      <c r="P3" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="15">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11">
+        <v>51.789626301420391</v>
+      </c>
+      <c r="D4" s="12">
+        <f>(C4-C3)/C3</f>
+        <v>3.5792526028407823E-2</v>
+      </c>
+      <c r="E4" s="13">
+        <f>E3</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="11">
+        <f>E4*$O4*D4</f>
+        <v>1.1930842009469273E-2</v>
+      </c>
+      <c r="G4" s="11">
+        <v>14.27177858457409</v>
+      </c>
+      <c r="H4" s="12">
+        <f>(G4-G3)/G3</f>
+        <v>-4.8548094361727342E-2</v>
+      </c>
+      <c r="I4" s="13">
+        <f>I3</f>
+        <v>1</v>
+      </c>
+      <c r="J4" s="11">
+        <f>I4*$O4*H4</f>
+        <v>-1.6182698120575781E-2</v>
+      </c>
+      <c r="K4" s="11">
+        <v>78.024901313146302</v>
+      </c>
+      <c r="L4" s="12">
+        <f>(K4-K3)/K3</f>
+        <v>-2.4688733585671231E-2</v>
+      </c>
+      <c r="M4" s="13">
+        <f>M3</f>
+        <v>1</v>
+      </c>
+      <c r="N4" s="11">
+        <f>M4*$O4*L4</f>
+        <v>-8.2295778618904098E-3</v>
+      </c>
+      <c r="O4" s="14">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="O4" s="7">
-        <f t="shared" ref="O4:O12" si="7">O3+M4+I4+E4</f>
+      <c r="P4" s="11">
+        <f>P3+N4+J4+F4</f>
+        <v>0.98751856602700305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="16">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11">
+        <v>51.789626301420391</v>
+      </c>
+      <c r="D5" s="12">
+        <f t="shared" ref="D5:D23" si="1">(C5-C4)/C4</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="13">
+        <v>1</v>
+      </c>
+      <c r="F5" s="11">
+        <f t="shared" ref="F5:F23" si="2">E5*$O5*D5</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="11">
+        <v>14.27177858457409</v>
+      </c>
+      <c r="H5" s="12">
+        <f t="shared" ref="H5:H23" si="3">(G5-G4)/G4</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="13">
+        <v>1</v>
+      </c>
+      <c r="J5" s="11">
+        <f t="shared" ref="J5:J23" si="4">I5*$O5*H5</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="11">
+        <v>78.024901313146302</v>
+      </c>
+      <c r="L5" s="12">
+        <f t="shared" ref="L5:L23" si="5">(K5-K4)/K4</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="13">
+        <v>1</v>
+      </c>
+      <c r="N5" s="11">
+        <f t="shared" ref="N5:N23" si="6">M5*$O5*L5</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="14">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P5" s="11">
+        <f>P4+N5+J5+F5</f>
+        <v>0.98751856602700305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="15">
+        <v>2</v>
+      </c>
+      <c r="C6" s="11">
+        <v>48.360742233985683</v>
+      </c>
+      <c r="D6" s="12">
+        <f t="shared" si="1"/>
+        <v>-6.6207932211719153E-2</v>
+      </c>
+      <c r="E6" s="13">
+        <f>E5</f>
+        <v>1</v>
+      </c>
+      <c r="F6" s="11">
+        <f t="shared" si="2"/>
+        <v>-2.2069310737239715E-2</v>
+      </c>
+      <c r="G6" s="11">
+        <v>14.109659160417303</v>
+      </c>
+      <c r="H6" s="12">
+        <f t="shared" si="3"/>
+        <v>-1.1359440815037336E-2</v>
+      </c>
+      <c r="I6" s="13">
+        <f>I5</f>
+        <v>1</v>
+      </c>
+      <c r="J6" s="11">
+        <f t="shared" si="4"/>
+        <v>-3.786480271679112E-3</v>
+      </c>
+      <c r="K6" s="11">
+        <v>80.59644608652016</v>
+      </c>
+      <c r="L6" s="12">
+        <f t="shared" si="5"/>
+        <v>3.2958000972704633E-2</v>
+      </c>
+      <c r="M6" s="13">
+        <f>M5</f>
+        <v>1</v>
+      </c>
+      <c r="N6" s="11">
+        <f t="shared" si="6"/>
+        <v>1.0986000324234878E-2</v>
+      </c>
+      <c r="O6" s="14">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P6" s="11">
+        <f>P5+N6+J6+F6</f>
         <v>0.97264877534231908</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="16">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11">
+        <v>48.360742233985683</v>
+      </c>
+      <c r="D7" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="13">
+        <v>1</v>
+      </c>
+      <c r="F7" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="11">
+        <v>14.109659160417303</v>
+      </c>
+      <c r="H7" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="13">
+        <v>1</v>
+      </c>
+      <c r="J7" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="11">
+        <v>80.59644608652016</v>
+      </c>
+      <c r="L7" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="13">
+        <v>1</v>
+      </c>
+      <c r="N7" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="14">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P7" s="11">
+        <f>P6+N7+J7+F7</f>
+        <v>0.97264877534231908</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="15">
         <v>3</v>
       </c>
-      <c r="B5" s="5">
+      <c r="C8" s="11">
         <v>47.433930472076391</v>
       </c>
-      <c r="C5" s="18">
+      <c r="D8" s="12">
         <f t="shared" si="1"/>
         <v>-1.9164547918331405E-2</v>
       </c>
-      <c r="D5" s="27">
-        <v>1</v>
-      </c>
-      <c r="E5" s="6">
+      <c r="E8" s="13">
+        <f>E7</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="11">
         <f t="shared" si="2"/>
         <v>-6.3881826394438009E-3</v>
       </c>
-      <c r="F5" s="5">
+      <c r="G8" s="11">
         <v>14.487708108887681</v>
       </c>
-      <c r="G5" s="18">
+      <c r="H8" s="12">
         <f t="shared" si="3"/>
         <v>2.6793627271376019E-2</v>
       </c>
-      <c r="H5" s="27">
-        <v>1</v>
-      </c>
-      <c r="I5" s="6">
+      <c r="I8" s="13">
+        <f>I7</f>
+        <v>1</v>
+      </c>
+      <c r="J8" s="11">
         <f t="shared" si="4"/>
         <v>8.9312090904586725E-3</v>
       </c>
-      <c r="J5" s="5">
+      <c r="K8" s="11">
         <v>83.430853940340839</v>
       </c>
-      <c r="K5" s="18">
+      <c r="L8" s="12">
         <f t="shared" si="5"/>
         <v>3.5167901209663094E-2</v>
       </c>
-      <c r="L5" s="27">
-        <v>1</v>
-      </c>
-      <c r="M5" s="6">
+      <c r="M8" s="13">
+        <f>M7</f>
+        <v>1</v>
+      </c>
+      <c r="N8" s="11">
         <f t="shared" si="6"/>
         <v>1.1722633736554364E-2</v>
       </c>
-      <c r="N5" s="3">
+      <c r="O8" s="14">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="O5" s="7">
-        <f t="shared" si="7"/>
+      <c r="P8" s="11">
+        <f>P7+N8+J8+F8</f>
         <v>0.98691443552988822</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="16">
+        <v>3</v>
+      </c>
+      <c r="C9" s="11">
+        <v>47.433930472076391</v>
+      </c>
+      <c r="D9" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="13">
+        <v>1</v>
+      </c>
+      <c r="F9" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="11">
+        <v>14.487708108887681</v>
+      </c>
+      <c r="H9" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="13">
+        <v>1</v>
+      </c>
+      <c r="J9" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="11">
+        <v>83.430853940340839</v>
+      </c>
+      <c r="L9" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="13">
+        <v>1</v>
+      </c>
+      <c r="N9" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="14">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P9" s="11">
+        <f>P8+N9+J9+F9</f>
+        <v>0.98691443552988822</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="15">
         <v>4</v>
       </c>
-      <c r="B6" s="5">
+      <c r="C10" s="11">
         <v>46.639853522194699</v>
       </c>
-      <c r="C6" s="18">
+      <c r="D10" s="12">
         <f t="shared" si="1"/>
         <v>-1.674069473009732E-2</v>
       </c>
-      <c r="D6" s="27">
-        <v>1</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="E10" s="13">
+        <f>E9</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="11">
         <f t="shared" si="2"/>
         <v>-5.5802315766991066E-3</v>
       </c>
-      <c r="F6" s="5">
+      <c r="G10" s="11">
         <v>14.620354575705113</v>
       </c>
-      <c r="G6" s="18">
+      <c r="H10" s="12">
         <f t="shared" si="3"/>
         <v>9.1557937128825991E-3</v>
       </c>
-      <c r="H6" s="27">
-        <v>1</v>
-      </c>
-      <c r="I6" s="6">
+      <c r="I10" s="13">
+        <f>I9</f>
+        <v>1</v>
+      </c>
+      <c r="J10" s="11">
         <f t="shared" si="4"/>
         <v>3.051931237627533E-3</v>
       </c>
-      <c r="J6" s="5">
+      <c r="K10" s="11">
         <v>87.352609088771857</v>
       </c>
-      <c r="K6" s="18">
+      <c r="L10" s="12">
         <f t="shared" si="5"/>
         <v>4.7006053075225138E-2</v>
       </c>
-      <c r="L6" s="27">
-        <v>1</v>
-      </c>
-      <c r="M6" s="6">
+      <c r="M10" s="13">
+        <f>M9</f>
+        <v>1</v>
+      </c>
+      <c r="N10" s="11">
         <f t="shared" si="6"/>
         <v>1.5668684358408378E-2</v>
       </c>
-      <c r="N6" s="3">
+      <c r="O10" s="14">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="O6" s="7">
-        <f t="shared" si="7"/>
+      <c r="P10" s="11">
+        <f>P9+N10+J10+F10</f>
         <v>1.0000548195492251</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="16">
+        <v>4</v>
+      </c>
+      <c r="C11" s="11">
+        <v>46.639853522194699</v>
+      </c>
+      <c r="D11" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="13">
+        <v>1</v>
+      </c>
+      <c r="F11" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="11">
+        <v>14.620354575705113</v>
+      </c>
+      <c r="H11" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="13">
+        <v>1</v>
+      </c>
+      <c r="J11" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="11">
+        <v>87.352609088771857</v>
+      </c>
+      <c r="L11" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="13">
+        <v>1</v>
+      </c>
+      <c r="N11" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="14">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P11" s="11">
+        <f>P10+N11+J11+F11</f>
+        <v>1.0000548195492251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="15">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
+      <c r="C12" s="11">
         <v>46.026952749008331</v>
       </c>
-      <c r="C7" s="18">
+      <c r="D12" s="12">
         <f t="shared" si="1"/>
         <v>-1.3141138466369849E-2</v>
       </c>
-      <c r="D7" s="27">
-        <v>1</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="E12" s="13">
+        <f>E11</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="11">
         <f t="shared" si="2"/>
         <v>-4.3803794887899497E-3</v>
       </c>
-      <c r="F7" s="5">
+      <c r="G12" s="11">
         <v>14.823069680749573</v>
       </c>
-      <c r="G7" s="18">
+      <c r="H12" s="12">
         <f t="shared" si="3"/>
         <v>1.3865265988918959E-2</v>
       </c>
-      <c r="H7" s="27">
-        <v>1</v>
-      </c>
-      <c r="I7" s="6">
+      <c r="I12" s="13">
+        <f>I11</f>
+        <v>1</v>
+      </c>
+      <c r="J12" s="11">
         <f t="shared" si="4"/>
         <v>4.6217553296396523E-3</v>
       </c>
-      <c r="J7" s="5">
+      <c r="K12" s="11">
         <v>88.219731106910714</v>
       </c>
-      <c r="K7" s="18">
+      <c r="L12" s="12">
         <f t="shared" si="5"/>
         <v>9.9266871039609961E-3</v>
       </c>
-      <c r="L7" s="27">
-        <v>1</v>
-      </c>
-      <c r="M7" s="6">
+      <c r="M12" s="13">
+        <f>M11</f>
+        <v>1</v>
+      </c>
+      <c r="N12" s="11">
         <f t="shared" si="6"/>
         <v>3.3088957013203317E-3</v>
       </c>
-      <c r="N7" s="3">
+      <c r="O12" s="14">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="O7" s="7">
-        <f t="shared" si="7"/>
+      <c r="P12" s="11">
+        <f>P11+N12+J12+F12</f>
         <v>1.0036050910913952</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="16">
+        <v>5</v>
+      </c>
+      <c r="C13" s="11">
+        <v>46.026952749008331</v>
+      </c>
+      <c r="D13" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="11">
+        <v>14.823069680749573</v>
+      </c>
+      <c r="H13" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="13">
+        <v>1</v>
+      </c>
+      <c r="J13" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="11">
+        <v>88.219731106910714</v>
+      </c>
+      <c r="L13" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="13">
+        <v>1</v>
+      </c>
+      <c r="N13" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="14">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P13" s="11">
+        <f>P12+N13+J13+F13</f>
+        <v>1.0036050910913952</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="15">
         <v>6</v>
       </c>
-      <c r="B8" s="5">
+      <c r="C14" s="11">
         <v>44.813832096497443</v>
       </c>
-      <c r="C8" s="18">
+      <c r="D14" s="12">
         <f t="shared" si="1"/>
         <v>-2.6356744908276056E-2</v>
       </c>
-      <c r="D8" s="27">
-        <v>1</v>
-      </c>
-      <c r="E8" s="6">
+      <c r="E14" s="13">
+        <f>E13</f>
+        <v>1</v>
+      </c>
+      <c r="F14" s="11">
         <f t="shared" si="2"/>
         <v>-8.7855816360920182E-3</v>
       </c>
-      <c r="F8" s="5">
+      <c r="G14" s="11">
         <v>15.211012578837039</v>
       </c>
-      <c r="G8" s="18">
+      <c r="H14" s="12">
         <f t="shared" si="3"/>
         <v>2.6171562735840079E-2</v>
       </c>
-      <c r="H8" s="27">
-        <v>1</v>
-      </c>
-      <c r="I8" s="6">
+      <c r="I14" s="13">
+        <f>I13</f>
+        <v>1</v>
+      </c>
+      <c r="J14" s="11">
         <f t="shared" si="4"/>
         <v>8.7238542452800251E-3</v>
       </c>
-      <c r="J8" s="5">
+      <c r="K14" s="11">
         <v>90.581977268586186</v>
       </c>
-      <c r="K8" s="18">
+      <c r="L14" s="12">
         <f t="shared" si="5"/>
         <v>2.677684608687755E-2</v>
       </c>
-      <c r="L8" s="27">
-        <v>1</v>
-      </c>
-      <c r="M8" s="6">
+      <c r="M14" s="13">
+        <f>M13</f>
+        <v>1</v>
+      </c>
+      <c r="N14" s="11">
         <f t="shared" si="6"/>
         <v>8.9256153622925168E-3</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O14" s="14">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="O8" s="7">
-        <f t="shared" si="7"/>
+      <c r="P14" s="11">
+        <f>P13+N14+J14+F14</f>
         <v>1.0124689790628758</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="16">
+        <v>6</v>
+      </c>
+      <c r="C15" s="11">
+        <v>44.813832096497443</v>
+      </c>
+      <c r="D15" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="13">
+        <v>1</v>
+      </c>
+      <c r="F15" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="11">
+        <v>15.211012578837039</v>
+      </c>
+      <c r="H15" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="13">
+        <v>1</v>
+      </c>
+      <c r="J15" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="11">
+        <v>90.581977268586186</v>
+      </c>
+      <c r="L15" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="13">
+        <v>1</v>
+      </c>
+      <c r="N15" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="14">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P15" s="11">
+        <f>P14+N15+J15+F15</f>
+        <v>1.0124689790628758</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="15">
         <v>7</v>
       </c>
-      <c r="B9" s="5">
+      <c r="C16" s="11">
         <v>45.71450776150035</v>
       </c>
-      <c r="C9" s="18">
+      <c r="D16" s="12">
         <f t="shared" si="1"/>
         <v>2.0098162171525217E-2</v>
       </c>
-      <c r="D9" s="27">
-        <v>1</v>
-      </c>
-      <c r="E9" s="6">
+      <c r="E16" s="13">
+        <f>E15</f>
+        <v>1</v>
+      </c>
+      <c r="F16" s="11">
         <f t="shared" si="2"/>
         <v>6.6993873905084054E-3</v>
       </c>
-      <c r="F9" s="5">
+      <c r="G16" s="11">
         <v>14.519470573096996</v>
       </c>
-      <c r="G9" s="18">
+      <c r="H16" s="12">
         <f t="shared" si="3"/>
         <v>-4.546324593158118E-2</v>
       </c>
-      <c r="H9" s="27">
-        <v>1</v>
-      </c>
-      <c r="I9" s="6">
+      <c r="I16" s="13">
+        <f>I15</f>
+        <v>1</v>
+      </c>
+      <c r="J16" s="11">
         <f t="shared" si="4"/>
         <v>-1.515441531052706E-2</v>
       </c>
-      <c r="J9" s="5">
+      <c r="K16" s="11">
         <v>94.857803663124855</v>
       </c>
-      <c r="K9" s="18">
+      <c r="L16" s="12">
         <f t="shared" si="5"/>
         <v>4.7203941926111215E-2</v>
       </c>
-      <c r="L9" s="27">
-        <v>1</v>
-      </c>
-      <c r="M9" s="6">
+      <c r="M16" s="13">
+        <f>M15</f>
+        <v>1</v>
+      </c>
+      <c r="N16" s="11">
         <f t="shared" si="6"/>
         <v>1.5734647308703737E-2</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O16" s="14">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="O9" s="7">
-        <f t="shared" si="7"/>
+      <c r="P16" s="11">
+        <f>P15+N16+J16+F16</f>
         <v>1.0197485984515609</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="16">
+        <v>7</v>
+      </c>
+      <c r="C17" s="11">
+        <v>45.71450776150035</v>
+      </c>
+      <c r="D17" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="13">
+        <v>1</v>
+      </c>
+      <c r="F17" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="11">
+        <v>14.519470573096996</v>
+      </c>
+      <c r="H17" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="13">
+        <v>1</v>
+      </c>
+      <c r="J17" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>94.857803663124855</v>
+      </c>
+      <c r="L17" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="13">
+        <v>1</v>
+      </c>
+      <c r="N17" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="14">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P17" s="11">
+        <f>P16+N17+J17+F17</f>
+        <v>1.0197485984515609</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="15">
         <v>8</v>
       </c>
-      <c r="B10" s="5">
+      <c r="C18" s="11">
         <v>43.135669549685545</v>
       </c>
-      <c r="C10" s="18">
+      <c r="D18" s="12">
         <f t="shared" si="1"/>
         <v>-5.641181187532418E-2</v>
       </c>
-      <c r="D10" s="27">
-        <v>1</v>
-      </c>
-      <c r="E10" s="6">
+      <c r="E18" s="13">
+        <f>E17</f>
+        <v>1</v>
+      </c>
+      <c r="F18" s="11">
         <f t="shared" si="2"/>
         <v>-1.8803937291774726E-2</v>
       </c>
-      <c r="F10" s="5">
+      <c r="G18" s="11">
         <v>14.044380944208896</v>
       </c>
-      <c r="G10" s="18">
+      <c r="H18" s="12">
         <f t="shared" si="3"/>
         <v>-3.2720864476173742E-2</v>
       </c>
-      <c r="H10" s="27">
-        <v>1</v>
-      </c>
-      <c r="I10" s="6">
+      <c r="I18" s="13">
+        <f>I17</f>
+        <v>1</v>
+      </c>
+      <c r="J18" s="11">
         <f t="shared" si="4"/>
         <v>-1.0906954825391247E-2</v>
       </c>
-      <c r="J10" s="5">
+      <c r="K18" s="11">
         <v>99.354539977795056</v>
       </c>
-      <c r="K10" s="18">
+      <c r="L18" s="12">
         <f t="shared" si="5"/>
         <v>4.7405022475955433E-2</v>
       </c>
-      <c r="L10" s="27">
-        <v>1</v>
-      </c>
-      <c r="M10" s="6">
+      <c r="M18" s="13">
+        <f>M17</f>
+        <v>1</v>
+      </c>
+      <c r="N18" s="11">
         <f t="shared" si="6"/>
         <v>1.5801674158651809E-2</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O18" s="14">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="O10" s="7">
-        <f t="shared" si="7"/>
+      <c r="P18" s="11">
+        <f>P17+N18+J18+F18</f>
         <v>1.0058393804930466</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="16">
+        <v>8</v>
+      </c>
+      <c r="C19" s="11">
+        <v>43.135669549685545</v>
+      </c>
+      <c r="D19" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="13">
+        <v>1</v>
+      </c>
+      <c r="F19" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="11">
+        <v>14.044380944208896</v>
+      </c>
+      <c r="H19" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="13">
+        <v>1</v>
+      </c>
+      <c r="J19" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
+        <v>99.354539977795056</v>
+      </c>
+      <c r="L19" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="13">
+        <v>1</v>
+      </c>
+      <c r="N19" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="14">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P19" s="11">
+        <f>P18+N19+J19+F19</f>
+        <v>1.0058393804930466</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="15">
         <v>9</v>
       </c>
-      <c r="B11" s="5">
+      <c r="C20" s="11">
         <v>43.699173847005071</v>
       </c>
-      <c r="C11" s="18">
+      <c r="D20" s="12">
         <f t="shared" si="1"/>
         <v>1.306353426763103E-2</v>
       </c>
-      <c r="D11" s="27">
-        <v>1</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="E20" s="13">
+        <f>E19</f>
+        <v>1</v>
+      </c>
+      <c r="F20" s="11">
         <f t="shared" si="2"/>
         <v>4.3545114225436764E-3</v>
       </c>
-      <c r="F11" s="5">
+      <c r="G20" s="11">
         <v>14.514037846165214</v>
       </c>
-      <c r="G11" s="18">
+      <c r="H20" s="12">
         <f t="shared" si="3"/>
         <v>3.3440911623091367E-2</v>
       </c>
-      <c r="H11" s="27">
-        <v>1</v>
-      </c>
-      <c r="I11" s="6">
+      <c r="I20" s="13">
+        <f>I19</f>
+        <v>1</v>
+      </c>
+      <c r="J20" s="11">
         <f t="shared" si="4"/>
         <v>1.1146970541030456E-2</v>
       </c>
-      <c r="J11" s="5">
+      <c r="K20" s="11">
         <v>97.470262750801652</v>
       </c>
-      <c r="K11" s="18">
+      <c r="L20" s="12">
         <f t="shared" si="5"/>
         <v>-1.8965184956968504E-2</v>
       </c>
-      <c r="L11" s="27">
-        <v>1</v>
-      </c>
-      <c r="M11" s="6">
+      <c r="M20" s="13">
+        <f>M19</f>
+        <v>1</v>
+      </c>
+      <c r="N20" s="11">
         <f t="shared" si="6"/>
         <v>-6.321728318989501E-3</v>
       </c>
-      <c r="N11" s="3">
+      <c r="O20" s="14">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="O11" s="7">
-        <f t="shared" si="7"/>
+      <c r="P20" s="11">
+        <f>P19+N20+J20+F20</f>
         <v>1.0150191341376311</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="16">
+        <v>9</v>
+      </c>
+      <c r="C21" s="11">
+        <v>43.699173847005071</v>
+      </c>
+      <c r="D21" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="13">
+        <v>1</v>
+      </c>
+      <c r="F21" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="11">
+        <v>14.514037846165214</v>
+      </c>
+      <c r="H21" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="13">
+        <v>1</v>
+      </c>
+      <c r="J21" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="11">
+        <v>97.470262750801652</v>
+      </c>
+      <c r="L21" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="13">
+        <v>1</v>
+      </c>
+      <c r="N21" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="14">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P21" s="11">
+        <f>P20+N21+J21+F21</f>
+        <v>1.0150191341376311</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="15">
         <v>10</v>
       </c>
-      <c r="B12" s="8">
+      <c r="C22" s="11">
         <v>46.31870425248367</v>
       </c>
-      <c r="C12" s="19">
+      <c r="D22" s="12">
         <f t="shared" si="1"/>
         <v>5.9944620798778082E-2</v>
       </c>
-      <c r="D12" s="28">
-        <v>0</v>
-      </c>
-      <c r="E12" s="9">
+      <c r="E22" s="13">
+        <f>E21</f>
+        <v>1</v>
+      </c>
+      <c r="F22" s="11">
         <f t="shared" si="2"/>
         <v>1.9981540266259361E-2</v>
       </c>
-      <c r="F12" s="8">
+      <c r="G22" s="11">
         <v>14.299061246408984</v>
       </c>
-      <c r="G12" s="19">
+      <c r="H22" s="12">
         <f t="shared" si="3"/>
         <v>-1.4811632850539241E-2</v>
       </c>
-      <c r="H12" s="28">
-        <v>0</v>
-      </c>
-      <c r="I12" s="9">
+      <c r="I22" s="13">
+        <f>I21</f>
+        <v>1</v>
+      </c>
+      <c r="J22" s="11">
         <f t="shared" si="4"/>
         <v>-4.9372109501797466E-3</v>
       </c>
-      <c r="J12" s="8">
+      <c r="K22" s="11">
         <v>97.861740955139794</v>
       </c>
-      <c r="K12" s="19">
+      <c r="L22" s="12">
         <f t="shared" si="5"/>
         <v>4.0163860575508957E-3</v>
       </c>
-      <c r="L12" s="28">
-        <v>0</v>
-      </c>
-      <c r="M12" s="9">
+      <c r="M22" s="13">
+        <f>M21</f>
+        <v>1</v>
+      </c>
+      <c r="N22" s="11">
         <f t="shared" si="6"/>
         <v>1.3387953525169651E-3</v>
       </c>
-      <c r="N12" s="4">
+      <c r="O22" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="10">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P22" s="11">
+        <f>P21+N22+J22+F22</f>
+        <v>1.0314022588062277</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="16">
+        <v>10</v>
+      </c>
+      <c r="C23" s="11">
+        <v>46.31870425248367</v>
+      </c>
+      <c r="D23" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="13">
+        <v>0</v>
+      </c>
+      <c r="F23" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="11">
+        <v>14.299061246408984</v>
+      </c>
+      <c r="H23" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="13">
+        <v>0</v>
+      </c>
+      <c r="J23" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="11">
+        <v>97.861740955139794</v>
+      </c>
+      <c r="L23" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="13">
+        <v>0</v>
+      </c>
+      <c r="N23" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="11">
+        <f>P22+N23+J23+F23</f>
+        <v>1.0314022588062277</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="9"/>
+    </row>
+    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="8"/>
+    </row>
+    <row r="26" spans="1:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
+      <c r="C26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="19">
+        <f>(C22-C2)/C2</f>
+        <v>-7.362591495032661E-2</v>
+      </c>
+      <c r="E26" s="20">
+        <f>SUM(D4:D23)</f>
+        <v>-6.9124026843775804E-2</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="19">
+        <f>(G22-G2)/G2</f>
+        <v>-4.6729250239401075E-2</v>
+      </c>
+      <c r="I26" s="20">
+        <f>SUM(H4:H23)</f>
+        <v>-4.3476117102949817E-2</v>
+      </c>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L26" s="19">
+        <f>(K22-K2)/K2</f>
+        <v>0.22327176193924742</v>
+      </c>
+      <c r="M26" s="20">
+        <f>SUM(L4:L23)</f>
+        <v>0.20680692036540921</v>
+      </c>
+      <c r="O26" t="s">
+        <v>14</v>
+      </c>
+      <c r="P26" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="5">
+        <f>$P$26*D26</f>
+        <v>-73.625914950326603</v>
+      </c>
+      <c r="G27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="5">
+        <f>$P$26*H26</f>
+        <v>-46.729250239401075</v>
+      </c>
+      <c r="K27" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="5">
+        <f>$P$26*L26</f>
+        <v>223.27176193924743</v>
+      </c>
+      <c r="O27" t="s">
+        <v>15</v>
+      </c>
+      <c r="P27" s="5">
+        <f>P26/3</f>
+        <v>333.33333333333331</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+      <c r="O29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P29" s="5">
+        <f>P26+L27+H27+D27</f>
+        <v>1102.9165967495196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="O30" t="s">
+        <v>21</v>
+      </c>
+      <c r="P30" s="5">
+        <f>P26*P22</f>
+        <v>1031.4022588062278</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B31" s="2"/>
+      <c r="C31" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="P31" t="b">
+        <f>P29=P30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
+      <c r="C32" s="17">
+        <v>0</v>
+      </c>
+      <c r="D32" s="10">
+        <v>50</v>
+      </c>
+      <c r="E32" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="2"/>
+      <c r="C33" s="17">
+        <v>1</v>
+      </c>
+      <c r="D33" s="10">
+        <v>51</v>
+      </c>
+      <c r="E33" s="21">
+        <f>(D33-D32)/D32</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C34" s="17">
+        <v>2</v>
+      </c>
+      <c r="D34" s="10">
+        <v>52</v>
+      </c>
+      <c r="E34" s="21">
+        <f t="shared" ref="E34:E37" si="7">(D34-D33)/D33</f>
+        <v>1.9607843137254902E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C35" s="17">
+        <v>3</v>
+      </c>
+      <c r="D35" s="10">
+        <v>53</v>
+      </c>
+      <c r="E35" s="21">
         <f t="shared" si="7"/>
-        <v>1.0314022588062277</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="22"/>
-    </row>
-    <row r="15" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="24">
-        <f>(B12-B2)/B12</f>
-        <v>-7.9477520084533335E-2</v>
-      </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="24">
-        <f>(F12-F2)/F12</f>
-        <v>-4.9019914070725965E-2</v>
-      </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="24">
-        <f>(J12-J2)/J12</f>
-        <v>0.18252016345517177</v>
-      </c>
-      <c r="N15" t="s">
-        <v>14</v>
-      </c>
-      <c r="O15" s="25">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="26">
-        <f>$O$15*C15</f>
-        <v>-79.477520084533339</v>
-      </c>
-      <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="26">
-        <f>$O$15*G15</f>
-        <v>-49.019914070725967</v>
-      </c>
-      <c r="J16" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16" s="26">
-        <f>$O$15*K15</f>
-        <v>182.52016345517177</v>
-      </c>
-      <c r="N16" t="s">
-        <v>15</v>
-      </c>
-      <c r="O16" s="26">
-        <f>O15/3</f>
-        <v>333.33333333333331</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="N18" t="s">
-        <v>20</v>
-      </c>
-      <c r="O18" s="26">
-        <f>O15+K16+G16+C16</f>
-        <v>1054.0227292999125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="N19" t="s">
-        <v>21</v>
-      </c>
-      <c r="O19" s="26">
-        <f>O15*O12</f>
-        <v>1031.4022588062278</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="O20" t="b">
-        <f>O18=O19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
+        <v>1.9230769230769232E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C36" s="17">
+        <v>4</v>
+      </c>
+      <c r="D36" s="10">
+        <v>54</v>
+      </c>
+      <c r="E36" s="21">
+        <f t="shared" si="7"/>
+        <v>1.8867924528301886E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C37" s="17">
+        <v>5</v>
+      </c>
+      <c r="D37" s="10">
+        <v>55</v>
+      </c>
+      <c r="E37" s="21">
+        <f t="shared" si="7"/>
+        <v>1.8518518518518517E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D38" s="22">
+        <f>(D37-D32)/D32</f>
+        <v>0.1</v>
+      </c>
+      <c r="E38" s="22">
+        <f>SUM(E33:E37)</f>
+        <v>9.6225055414844538E-2</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A14:O14"/>
+  <mergeCells count="12">
+    <mergeCell ref="B25:P25"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
   </mergeCells>
-  <conditionalFormatting sqref="O20">
+  <conditionalFormatting sqref="P31">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
